--- a/final1.xlsx
+++ b/final1.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>Date Sales</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -466,22 +466,22 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Taxable Value</t>
+          <t>Taxable Value Sales</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Integrated Tax</t>
+          <t>Integrated Tax Sales</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Central Tax</t>
+          <t>Central Tax Sales</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>State/Union Territory Tax</t>
+          <t>State/Union Territory Tax Sales</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -501,27 +501,27 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>Date Purchase</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Taxable Value</t>
+          <t>Taxable Value Purchase</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Integrated Tax</t>
+          <t>Integrated Tax Purchase</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Central Tax</t>
+          <t>Central Tax Purchase</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>State/Union Territory Tax</t>
+          <t>State/Union Territory Tax Purchase</t>
         </is>
       </c>
     </row>
@@ -30788,7 +30788,11 @@
           <t>Import of Goods/Supplies from SEZ to DTA</t>
         </is>
       </c>
-      <c r="C472" t="inlineStr"/>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>27AACCR2605R1Z1</t>
+        </is>
+      </c>
       <c r="D472" t="inlineStr">
         <is>
           <t>Invoice/Bill of Entry</t>
